--- a/biology/Botanique/Botryosphaeriales/Botryosphaeriales.xlsx
+++ b/biology/Botanique/Botryosphaeriales/Botryosphaeriales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Botryosphaeriales sont un ordre de champignons ascomycètes de la classe des Dothideomycetes.
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet ordre a une répartition cosmopolite et regroupe près de 5 000 espèces[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet ordre a une répartition cosmopolite et regroupe près de 5 000 espèces.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description microscopique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les ascomata sont uni- à multiloculaires avec des parois multicouches marron foncé, se présentant de façon isolée ou en groupes, fréquemment inclus dans le tissu stromatique. Les asques sont bituniculés, avec un endotunica épais, pédonculés ou sessiles, clavés, avec une chambre apicale bien développée, entremêlés de pseudoparaphyses hyalines, septées, ramifiées ou non. Les ascospores sont hyalines à pigmentées, septées ou non, ellipsoïdes à ovoïdes, avec ou sans appendices mucoïdes ou gaine. Les anamorphes ont des conidiomata pycnidiens uni- à multiloculaires, fréquemment inclus dans le tissu stromatique, avec des cellules conidiogènes hyalines et phialidiques, et des conidies hyalines à pigmentées, à parois fines à épaisses, qui ont parfois des appendices ou des gaines mucoïdes[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les ascomata sont uni- à multiloculaires avec des parois multicouches marron foncé, se présentant de façon isolée ou en groupes, fréquemment inclus dans le tissu stromatique. Les asques sont bituniculés, avec un endotunica épais, pédonculés ou sessiles, clavés, avec une chambre apicale bien développée, entremêlés de pseudoparaphyses hyalines, septées, ramifiées ou non. Les ascospores sont hyalines à pigmentées, septées ou non, ellipsoïdes à ovoïdes, avec ou sans appendices mucoïdes ou gaine. Les anamorphes ont des conidiomata pycnidiens uni- à multiloculaires, fréquemment inclus dans le tissu stromatique, avec des cellules conidiogènes hyalines et phialidiques, et des conidies hyalines à pigmentées, à parois fines à épaisses, qui ont parfois des appendices ou des gaines mucoïdes.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet ordre est décrit en 2007 par les mycologues Conrad L. Schoch, Pedro Willem Crous et Robert Alan Shoemaker[2]. Botryosphaeria est le genre type et les Botryosphaeriaceae sont la famille type.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet ordre est décrit en 2007 par les mycologues Conrad L. Schoch, Pedro Willem Crous et Robert Alan Shoemaker. Botryosphaeria est le genre type et les Botryosphaeriaceae sont la famille type.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Liste des familles</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon MycoBank                                            (25 juin 2022)[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon MycoBank                                            (25 juin 2022) :
 Aplosporellaceae Slippers, Boissin &amp; Crous, fam. nov., 2013
 Endomelanconiopsidaceae Tao Yang &amp; Crous, 2016
 Melanopsaceae Phillips, Slippers, Boissin &amp; Crous, 2013
@@ -615,12 +635,12 @@
 Pseudofusicoccaceae Tao Yang &amp; Crous, 2016
 Saccharataceae Phillips, Slippers, Boissin &amp; Crous, 2013
 Septorioideaceae Wyka &amp; Broders, 2016
-Et les genres sans famille[3] :
+Et les genres sans famille :
 Hendersonula Speg., 1880
 Piringa Speg., 1911
 Sclerotheca Bubák &amp; Vleugel, 1917
 Spencermartinsia A.J.L. Phillips, A. Alves &amp; Crous, 2008
-Selon Index Fungorum                                      (25 juin 2022)[4] :
+Selon Index Fungorum                                      (25 juin 2022) :
 Aplosporellaceae
 Botryosphaeriaceae
 Melanopsaceae
@@ -628,7 +648,7 @@
 Planistromellaceae
 Saccharataceae
 Septorioideaceae
-Et les genres sans famille[4] :
+Et les genres sans famille :
 Alanomyces
 Camarosporium
 Hendersonula
